--- a/output/clean_data/stock_weights.xlsx
+++ b/output/clean_data/stock_weights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="1941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="1946">
   <si>
     <t>Area</t>
   </si>
@@ -5339,7 +5339,7 @@
     <t xml:space="preserve">MAR </t>
   </si>
   <si>
-    <t>Kerguelan Plateau (Willaims Ridge) and</t>
+    <t>Kerguelan Plateau (Willaims Ridge) and Del Cano Rise</t>
   </si>
   <si>
     <t>SEAFO: SE Atlantic</t>
@@ -5609,52 +5609,67 @@
     <t>Fraser River</t>
   </si>
   <si>
-    <t>Pacific Eastern Central</t>
-  </si>
-  <si>
-    <t>Pacific Southeast</t>
-  </si>
-  <si>
-    <t>Pacific Central</t>
-  </si>
-  <si>
-    <t>Indian Ocean, Eastern</t>
-  </si>
-  <si>
-    <t>Indian Ocean, Western</t>
-  </si>
-  <si>
-    <t>Pacific Western Central</t>
+    <t>Pacific Eastern Central -  Area(s) 77</t>
+  </si>
+  <si>
+    <t>Pacific Southeast -  Area(s) 87</t>
+  </si>
+  <si>
+    <t>Pacific Central -  Area(s) 71, 77</t>
+  </si>
+  <si>
+    <t>Indian Ocean -  Area(s) 51</t>
+  </si>
+  <si>
+    <t>Indian Ocean -  Area(s) 57</t>
+  </si>
+  <si>
+    <t>Pacific Western Central -  Area(s) 71</t>
   </si>
   <si>
     <t>Global/All areas</t>
   </si>
   <si>
-    <t>Mediterranean and Black Sea</t>
-  </si>
-  <si>
-    <t>Atlantic North</t>
-  </si>
-  <si>
-    <t>Atlantic South</t>
-  </si>
-  <si>
-    <t>Pacific North</t>
-  </si>
-  <si>
-    <t>Pacific South</t>
-  </si>
-  <si>
-    <t>Atlantic Northeast</t>
-  </si>
-  <si>
-    <t>Atlantic Northwest</t>
-  </si>
-  <si>
-    <t>Atlantic Southern</t>
-  </si>
-  <si>
-    <t>Pacific Southern</t>
+    <t>Mediterranean and Black Sea -  Area(s) 37</t>
+  </si>
+  <si>
+    <t>Atlantic North -  Area(s) 27, 21</t>
+  </si>
+  <si>
+    <t>Atlantic South -  Area(s) 41, 47</t>
+  </si>
+  <si>
+    <t>Indian Ocean -  Area(s) 57, 51</t>
+  </si>
+  <si>
+    <t>Pacific North -  Area(s) 61, 67</t>
+  </si>
+  <si>
+    <t>Pacific South -  Area(s) 81, 87</t>
+  </si>
+  <si>
+    <t>Atlantic Northeast -  Area(s) 27</t>
+  </si>
+  <si>
+    <t>Atlantic Northwest -  Area(s) 21</t>
+  </si>
+  <si>
+    <t>Atlantic Southern -  Area(s) 41, 47</t>
+  </si>
+  <si>
+    <t>Pacific Southern -  Area(s) 81, 87</t>
+  </si>
+  <si>
+    <t>Atlantic North -  Area(s) 34</t>
+  </si>
+  <si>
+    <t>Atlantic South -  Area(s) 27</t>
+  </si>
+  <si>
+    <t>Pacific North -  Area(s) 77</t>
+  </si>
+  <si>
+    <t>Pacific South -  Area(s) 87</t>
   </si>
   <si>
     <t>Eastern Atlantic Ocean stock</t>
@@ -6698,7 +6713,7 @@
         <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>1906</v>
+        <v>1911</v>
       </c>
       <c r="G25">
         <v>0.1515151515151515</v>
@@ -7618,7 +7633,7 @@
         <v>800</v>
       </c>
       <c r="F71" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="G71">
         <v>0.03846153846153846</v>
@@ -7918,7 +7933,7 @@
         <v>500</v>
       </c>
       <c r="F86" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -8398,7 +8413,7 @@
         <v>1600</v>
       </c>
       <c r="F110" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="G110">
         <v>0.02579470643793559</v>
@@ -8995,7 +9010,7 @@
         <v>300</v>
       </c>
       <c r="F140" t="s">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="G140">
         <v>0.2260738507912585</v>
@@ -9115,7 +9130,7 @@
         <v>300000</v>
       </c>
       <c r="F146" t="s">
-        <v>1910</v>
+        <v>1915</v>
       </c>
       <c r="G146">
         <v>0.4991680532445923</v>
@@ -9135,7 +9150,7 @@
         <v>50000</v>
       </c>
       <c r="F147" t="s">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="G147">
         <v>0.08319467554076539</v>
@@ -9235,7 +9250,7 @@
         <v>2000</v>
       </c>
       <c r="F152" t="s">
-        <v>1912</v>
+        <v>1917</v>
       </c>
       <c r="G152">
         <v>0.003327787021630616</v>
@@ -9335,7 +9350,7 @@
         <v>1000</v>
       </c>
       <c r="F157" t="s">
-        <v>1913</v>
+        <v>1918</v>
       </c>
       <c r="G157">
         <v>0.02777777777777778</v>
@@ -9415,7 +9430,7 @@
         <v>5000</v>
       </c>
       <c r="F161" t="s">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="G161">
         <v>0.2631578947368421</v>
@@ -9455,7 +9470,7 @@
         <v>12000</v>
       </c>
       <c r="F163" t="s">
-        <v>1915</v>
+        <v>1920</v>
       </c>
       <c r="G163">
         <v>0.002039428959891231</v>
@@ -9475,7 +9490,7 @@
         <v>54000</v>
       </c>
       <c r="F164" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="G164">
         <v>0.009177430319510536</v>
@@ -9615,7 +9630,7 @@
         <v>150000</v>
       </c>
       <c r="F171" t="s">
-        <v>1917</v>
+        <v>1922</v>
       </c>
       <c r="G171">
         <v>0.02549286199864038</v>
@@ -9675,7 +9690,7 @@
         <v>2000</v>
       </c>
       <c r="F174" t="s">
-        <v>1918</v>
+        <v>1923</v>
       </c>
       <c r="G174">
         <v>0.4</v>
@@ -9695,7 +9710,7 @@
         <v>3000</v>
       </c>
       <c r="F175" t="s">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="G175">
         <v>0.6</v>
@@ -9835,7 +9850,7 @@
         <v>10000</v>
       </c>
       <c r="F182" t="s">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="G182">
         <v>0.007896399241945672</v>
@@ -10035,7 +10050,7 @@
         <v>2000</v>
       </c>
       <c r="F192" t="s">
-        <v>1921</v>
+        <v>1926</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -10135,7 +10150,7 @@
         <v>15000</v>
       </c>
       <c r="F197" t="s">
-        <v>1922</v>
+        <v>1927</v>
       </c>
       <c r="G197">
         <v>0.9803921568627451</v>
@@ -10215,7 +10230,7 @@
         <v>20000</v>
       </c>
       <c r="F201" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="G201">
         <v>0.9090909090909091</v>
@@ -10255,7 +10270,7 @@
         <v>20000</v>
       </c>
       <c r="F203" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="G203">
         <v>0.9090909090909091</v>
@@ -10295,7 +10310,7 @@
         <v>200000</v>
       </c>
       <c r="F205" t="s">
-        <v>1924</v>
+        <v>1929</v>
       </c>
       <c r="G205">
         <v>0.5714285714285714</v>
@@ -10315,7 +10330,7 @@
         <v>150000</v>
       </c>
       <c r="F206" t="s">
-        <v>1925</v>
+        <v>1930</v>
       </c>
       <c r="G206">
         <v>0.4285714285714285</v>
@@ -10415,7 +10430,7 @@
         <v>13000</v>
       </c>
       <c r="F211" t="s">
-        <v>1926</v>
+        <v>1931</v>
       </c>
       <c r="G211">
         <v>0.0405616224648986</v>
@@ -10555,7 +10570,7 @@
         <v>50000</v>
       </c>
       <c r="F218" t="s">
-        <v>1927</v>
+        <v>1932</v>
       </c>
       <c r="G218">
         <v>0.196078431372549</v>
@@ -10635,7 +10650,7 @@
         <v>70000</v>
       </c>
       <c r="F222" t="s">
-        <v>1928</v>
+        <v>1933</v>
       </c>
       <c r="G222">
         <v>0.875</v>
@@ -10655,7 +10670,7 @@
         <v>2250000</v>
       </c>
       <c r="F223" t="s">
-        <v>1929</v>
+        <v>1934</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -10735,7 +10750,7 @@
         <v>5000</v>
       </c>
       <c r="F227" t="s">
-        <v>1930</v>
+        <v>1935</v>
       </c>
       <c r="G227">
         <v>0.6666666666666666</v>
@@ -10815,7 +10830,7 @@
         <v>20000</v>
       </c>
       <c r="F231" t="s">
-        <v>1931</v>
+        <v>1936</v>
       </c>
       <c r="G231">
         <v>0.5194805194805194</v>
@@ -11355,7 +11370,7 @@
         <v>4000</v>
       </c>
       <c r="F258" t="s">
-        <v>1932</v>
+        <v>1937</v>
       </c>
       <c r="G258">
         <v>0.9090909090909091</v>
@@ -11655,7 +11670,7 @@
         <v>200</v>
       </c>
       <c r="F273" t="s">
-        <v>1933</v>
+        <v>1938</v>
       </c>
       <c r="G273">
         <v>0.001062270284051074</v>
@@ -11775,7 +11790,7 @@
         <v>3000</v>
       </c>
       <c r="F279" t="s">
-        <v>1934</v>
+        <v>1939</v>
       </c>
       <c r="G279">
         <v>0.6</v>
@@ -12015,7 +12030,7 @@
         <v>78000</v>
       </c>
       <c r="F291" t="s">
-        <v>1935</v>
+        <v>1940</v>
       </c>
       <c r="G291">
         <v>0.2119565217391304</v>
@@ -12075,7 +12090,7 @@
         <v>2580000</v>
       </c>
       <c r="F294" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -12135,7 +12150,7 @@
         <v>2000</v>
       </c>
       <c r="F297" t="s">
-        <v>1937</v>
+        <v>1942</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -12215,7 +12230,7 @@
         <v>6000</v>
       </c>
       <c r="F301" t="s">
-        <v>1938</v>
+        <v>1943</v>
       </c>
       <c r="G301">
         <v>0.04477611940298507</v>
@@ -12555,7 +12570,7 @@
         <v>15000</v>
       </c>
       <c r="F318" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="G318">
         <v>0.103448275862069</v>
@@ -12575,7 +12590,7 @@
         <v>100000</v>
       </c>
       <c r="F319" t="s">
-        <v>1940</v>
+        <v>1945</v>
       </c>
       <c r="G319">
         <v>0.6896551724137931</v>
@@ -14359,7 +14374,7 @@
         <v>1304</v>
       </c>
       <c r="D425" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E425">
         <v>3</v>
@@ -14379,7 +14394,7 @@
         <v>1305</v>
       </c>
       <c r="D426" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E426">
         <v>2</v>
@@ -14399,7 +14414,7 @@
         <v>1306</v>
       </c>
       <c r="D427" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E427">
         <v>3</v>
@@ -14419,7 +14434,7 @@
         <v>1307</v>
       </c>
       <c r="D428" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E428">
         <v>5</v>
@@ -14439,7 +14454,7 @@
         <v>1308</v>
       </c>
       <c r="D429" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E429">
         <v>2</v>
@@ -14459,7 +14474,7 @@
         <v>1309</v>
       </c>
       <c r="D430" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E430">
         <v>1</v>
@@ -14533,7 +14548,7 @@
         <v>1307</v>
       </c>
       <c r="D434" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E434">
         <v>3</v>
@@ -14553,7 +14568,7 @@
         <v>1309</v>
       </c>
       <c r="D435" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E435">
         <v>1</v>
@@ -14587,7 +14602,7 @@
         <v>1310</v>
       </c>
       <c r="D437" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E437">
         <v>1</v>
@@ -14737,7 +14752,7 @@
         <v>1318</v>
       </c>
       <c r="D446" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E446">
         <v>1</v>
@@ -14757,7 +14772,7 @@
         <v>1308</v>
       </c>
       <c r="D447" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E447">
         <v>3</v>
@@ -14777,7 +14792,7 @@
         <v>1309</v>
       </c>
       <c r="D448" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E448">
         <v>2</v>
@@ -14839,7 +14854,7 @@
         <v>1310</v>
       </c>
       <c r="D452" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E452">
         <v>5</v>
@@ -14879,7 +14894,7 @@
         <v>1308</v>
       </c>
       <c r="D454" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E454">
         <v>3</v>
@@ -14899,7 +14914,7 @@
         <v>1309</v>
       </c>
       <c r="D455" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E455">
         <v>1</v>
@@ -14947,7 +14962,7 @@
         <v>1320</v>
       </c>
       <c r="D458" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E458">
         <v>3</v>
@@ -14967,7 +14982,7 @@
         <v>1321</v>
       </c>
       <c r="D459" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E459">
         <v>1</v>
@@ -15135,7 +15150,7 @@
         <v>1310</v>
       </c>
       <c r="D468" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E468">
         <v>5</v>
@@ -15195,7 +15210,7 @@
         <v>1308</v>
       </c>
       <c r="D471" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E471">
         <v>2</v>
@@ -15215,7 +15230,7 @@
         <v>1309</v>
       </c>
       <c r="D472" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E472">
         <v>2</v>
@@ -15375,7 +15390,7 @@
         <v>1328</v>
       </c>
       <c r="D483" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E483">
         <v>1</v>
@@ -15395,7 +15410,7 @@
         <v>1334</v>
       </c>
       <c r="D484" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E484">
         <v>2</v>
@@ -15415,7 +15430,7 @@
         <v>1329</v>
       </c>
       <c r="D485" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E485">
         <v>3</v>
@@ -15435,7 +15450,7 @@
         <v>1335</v>
       </c>
       <c r="D486" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E486">
         <v>1</v>
@@ -15523,7 +15538,7 @@
         <v>1305</v>
       </c>
       <c r="D491" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E491">
         <v>1</v>
@@ -15639,7 +15654,7 @@
         <v>1330</v>
       </c>
       <c r="D498" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E498">
         <v>1</v>
@@ -15699,7 +15714,7 @@
         <v>1305</v>
       </c>
       <c r="D501" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E501">
         <v>2</v>
@@ -15719,7 +15734,7 @@
         <v>1339</v>
       </c>
       <c r="D502" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E502">
         <v>1</v>
@@ -15779,7 +15794,7 @@
         <v>1304</v>
       </c>
       <c r="D505" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E505">
         <v>1</v>
@@ -15819,7 +15834,7 @@
         <v>1305</v>
       </c>
       <c r="D507" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E507">
         <v>3</v>
@@ -15881,7 +15896,7 @@
         <v>1342</v>
       </c>
       <c r="D511" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E511">
         <v>1</v>
@@ -15901,7 +15916,7 @@
         <v>1308</v>
       </c>
       <c r="D512" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E512">
         <v>1</v>
@@ -15921,7 +15936,7 @@
         <v>1309</v>
       </c>
       <c r="D513" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E513">
         <v>1</v>
@@ -15969,7 +15984,7 @@
         <v>1310</v>
       </c>
       <c r="D516" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E516">
         <v>3</v>
@@ -16009,7 +16024,7 @@
         <v>1307</v>
       </c>
       <c r="D518" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E518">
         <v>5</v>
@@ -16029,7 +16044,7 @@
         <v>1308</v>
       </c>
       <c r="D519" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E519">
         <v>2</v>
@@ -16049,7 +16064,7 @@
         <v>1309</v>
       </c>
       <c r="D520" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E520">
         <v>1</v>
@@ -16069,7 +16084,7 @@
         <v>1310</v>
       </c>
       <c r="D521" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E521">
         <v>3</v>
@@ -16089,7 +16104,7 @@
         <v>1305</v>
       </c>
       <c r="D522" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E522">
         <v>2</v>
@@ -16171,7 +16186,7 @@
         <v>1347</v>
       </c>
       <c r="D527" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E527">
         <v>1</v>
@@ -16407,7 +16422,7 @@
         <v>1328</v>
       </c>
       <c r="D540" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E540">
         <v>1</v>
@@ -16427,7 +16442,7 @@
         <v>1350</v>
       </c>
       <c r="D541" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E541">
         <v>3</v>
@@ -16447,7 +16462,7 @@
         <v>1334</v>
       </c>
       <c r="D542" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E542">
         <v>2</v>
@@ -16467,7 +16482,7 @@
         <v>1329</v>
       </c>
       <c r="D543" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E543">
         <v>1</v>
@@ -16487,7 +16502,7 @@
         <v>1305</v>
       </c>
       <c r="D544" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E544">
         <v>1</v>
@@ -16507,7 +16522,7 @@
         <v>1335</v>
       </c>
       <c r="D545" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E545">
         <v>5</v>
@@ -16555,7 +16570,7 @@
         <v>1310</v>
       </c>
       <c r="D548" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E548">
         <v>3</v>
@@ -16595,7 +16610,7 @@
         <v>1305</v>
       </c>
       <c r="D550" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E550">
         <v>2</v>
@@ -16629,7 +16644,7 @@
         <v>1310</v>
       </c>
       <c r="D552" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E552">
         <v>3</v>
@@ -16649,7 +16664,7 @@
         <v>1346</v>
       </c>
       <c r="D553" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E553">
         <v>5</v>
@@ -16669,7 +16684,7 @@
         <v>1314</v>
       </c>
       <c r="D554" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E554">
         <v>1</v>
@@ -19838,7 +19853,7 @@
         <v>1408</v>
       </c>
       <c r="D751" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E751">
         <v>2</v>
@@ -19858,7 +19873,7 @@
         <v>1410</v>
       </c>
       <c r="D752" t="s">
-        <v>1893</v>
+        <v>1898</v>
       </c>
       <c r="E752">
         <v>3</v>
@@ -20628,7 +20643,7 @@
         <v>1411</v>
       </c>
       <c r="D804" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E804">
         <v>5</v>
@@ -20648,7 +20663,7 @@
         <v>1412</v>
       </c>
       <c r="D805" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E805">
         <v>5</v>
@@ -28492,7 +28507,7 @@
         <v>1451</v>
       </c>
       <c r="D1304" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1304">
         <v>10</v>
@@ -28512,7 +28527,7 @@
         <v>1455</v>
       </c>
       <c r="D1305" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1305">
         <v>2</v>
@@ -28605,7 +28620,7 @@
         <v>1457</v>
       </c>
       <c r="D1311" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E1311">
         <v>10</v>
@@ -29380,7 +29395,7 @@
         <v>1452</v>
       </c>
       <c r="D1361" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1361">
         <v>2</v>
@@ -29899,7 +29914,7 @@
         <v>1451</v>
       </c>
       <c r="D1397" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1397">
         <v>10</v>
@@ -29953,7 +29968,7 @@
         <v>1452</v>
       </c>
       <c r="D1400" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1400">
         <v>5</v>
@@ -30122,7 +30137,7 @@
         <v>1452</v>
       </c>
       <c r="D1411" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E1411">
         <v>10</v>
@@ -30156,7 +30171,7 @@
         <v>1451</v>
       </c>
       <c r="D1413" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1413">
         <v>10</v>
@@ -30176,7 +30191,7 @@
         <v>1459</v>
       </c>
       <c r="D1414" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1414">
         <v>1</v>
@@ -30224,7 +30239,7 @@
         <v>1451</v>
       </c>
       <c r="D1417" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1417">
         <v>10</v>
@@ -30261,7 +30276,7 @@
         <v>1452</v>
       </c>
       <c r="D1419" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1419">
         <v>5</v>
@@ -30337,7 +30352,7 @@
         <v>1455</v>
       </c>
       <c r="D1424" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1424">
         <v>5</v>
@@ -30698,7 +30713,7 @@
         <v>1452</v>
       </c>
       <c r="D1447" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E1447">
         <v>10</v>
@@ -30732,7 +30747,7 @@
         <v>1451</v>
       </c>
       <c r="D1449" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1449">
         <v>10</v>
@@ -31011,7 +31026,7 @@
         <v>1474</v>
       </c>
       <c r="D1467" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E1467">
         <v>10</v>
@@ -31031,7 +31046,7 @@
         <v>1475</v>
       </c>
       <c r="D1468" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1468">
         <v>5</v>
@@ -31051,7 +31066,7 @@
         <v>1476</v>
       </c>
       <c r="D1469" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1469">
         <v>4</v>
@@ -31071,7 +31086,7 @@
         <v>1454</v>
       </c>
       <c r="D1470" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1470">
         <v>1</v>
@@ -31209,7 +31224,7 @@
         <v>1451</v>
       </c>
       <c r="D1479" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1479">
         <v>10</v>
@@ -31229,7 +31244,7 @@
         <v>1452</v>
       </c>
       <c r="D1480" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1480">
         <v>1</v>
@@ -31249,7 +31264,7 @@
         <v>1471</v>
       </c>
       <c r="D1481" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1481">
         <v>2</v>
@@ -31303,7 +31318,7 @@
         <v>1452</v>
       </c>
       <c r="D1484" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1484">
         <v>1</v>
@@ -31343,7 +31358,7 @@
         <v>1451</v>
       </c>
       <c r="D1486" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1486">
         <v>5</v>
@@ -31470,7 +31485,7 @@
         <v>1451</v>
       </c>
       <c r="D1494" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1494">
         <v>10</v>
@@ -31490,7 +31505,7 @@
         <v>1454</v>
       </c>
       <c r="D1495" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1495">
         <v>2</v>
@@ -31510,7 +31525,7 @@
         <v>1471</v>
       </c>
       <c r="D1496" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1496">
         <v>3</v>
@@ -31561,7 +31576,7 @@
         <v>1451</v>
       </c>
       <c r="D1499" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1499">
         <v>10</v>
@@ -31581,7 +31596,7 @@
         <v>1455</v>
       </c>
       <c r="D1500" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1500">
         <v>5</v>
@@ -31739,7 +31754,7 @@
         <v>1455</v>
       </c>
       <c r="D1510" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1510">
         <v>1</v>
@@ -31872,7 +31887,7 @@
         <v>1451</v>
       </c>
       <c r="D1518" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1518">
         <v>10</v>
@@ -31892,7 +31907,7 @@
         <v>1457</v>
       </c>
       <c r="D1519" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1519">
         <v>2</v>
@@ -31946,7 +31961,7 @@
         <v>1470</v>
       </c>
       <c r="D1522" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1522">
         <v>3</v>
@@ -32158,7 +32173,7 @@
         <v>1451</v>
       </c>
       <c r="D1535" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1535">
         <v>10</v>
@@ -32352,7 +32367,7 @@
         <v>1451</v>
       </c>
       <c r="D1548" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1548">
         <v>10</v>
@@ -32445,7 +32460,7 @@
         <v>1451</v>
       </c>
       <c r="D1554" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1554">
         <v>10</v>
@@ -32533,7 +32548,7 @@
         <v>1455</v>
       </c>
       <c r="D1559" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E1559">
         <v>10</v>
@@ -32680,7 +32695,7 @@
         <v>1451</v>
       </c>
       <c r="D1568" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E1568">
         <v>10</v>
@@ -33381,7 +33396,7 @@
         <v>1484</v>
       </c>
       <c r="D1617" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E1617">
         <v>5</v>
@@ -33401,7 +33416,7 @@
         <v>1486</v>
       </c>
       <c r="D1618" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E1618">
         <v>2</v>
@@ -33480,7 +33495,7 @@
         <v>1488</v>
       </c>
       <c r="D1623" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1623">
         <v>3</v>
@@ -33500,7 +33515,7 @@
         <v>1489</v>
       </c>
       <c r="D1624" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1624">
         <v>5</v>
@@ -33588,7 +33603,7 @@
         <v>1485</v>
       </c>
       <c r="D1629" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1629">
         <v>2</v>
@@ -33608,7 +33623,7 @@
         <v>1490</v>
       </c>
       <c r="D1630" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1630">
         <v>1</v>
@@ -33628,7 +33643,7 @@
         <v>1491</v>
       </c>
       <c r="D1631" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1631">
         <v>1</v>
@@ -33676,7 +33691,7 @@
         <v>1493</v>
       </c>
       <c r="D1634" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1634">
         <v>10</v>
@@ -33696,7 +33711,7 @@
         <v>1494</v>
       </c>
       <c r="D1635" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1635">
         <v>5</v>
@@ -33716,7 +33731,7 @@
         <v>1485</v>
       </c>
       <c r="D1636" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1636">
         <v>3</v>
@@ -33736,7 +33751,7 @@
         <v>1495</v>
       </c>
       <c r="D1637" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1637">
         <v>3</v>
@@ -33756,7 +33771,7 @@
         <v>1496</v>
       </c>
       <c r="D1638" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1638">
         <v>1</v>
@@ -33776,7 +33791,7 @@
         <v>1497</v>
       </c>
       <c r="D1639" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1639">
         <v>1</v>
@@ -33796,7 +33811,7 @@
         <v>1498</v>
       </c>
       <c r="D1640" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1640">
         <v>5</v>
@@ -33816,7 +33831,7 @@
         <v>1499</v>
       </c>
       <c r="D1641" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1641">
         <v>2</v>
@@ -33836,7 +33851,7 @@
         <v>1489</v>
       </c>
       <c r="D1642" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1642">
         <v>1</v>
@@ -33856,7 +33871,7 @@
         <v>1500</v>
       </c>
       <c r="D1643" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1643">
         <v>2</v>
@@ -33876,7 +33891,7 @@
         <v>1501</v>
       </c>
       <c r="D1644" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1644">
         <v>3</v>
@@ -33896,7 +33911,7 @@
         <v>1502</v>
       </c>
       <c r="D1645" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1645">
         <v>2</v>
@@ -33916,7 +33931,7 @@
         <v>1496</v>
       </c>
       <c r="D1646" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1646">
         <v>1</v>
@@ -33950,7 +33965,7 @@
         <v>1504</v>
       </c>
       <c r="D1648" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1648">
         <v>1</v>
@@ -33970,7 +33985,7 @@
         <v>1505</v>
       </c>
       <c r="D1649" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1649">
         <v>2</v>
@@ -34156,7 +34171,7 @@
         <v>1506</v>
       </c>
       <c r="D1661" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1661">
         <v>5</v>
@@ -34176,7 +34191,7 @@
         <v>1507</v>
       </c>
       <c r="D1662" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1662">
         <v>2</v>
@@ -34196,7 +34211,7 @@
         <v>1508</v>
       </c>
       <c r="D1663" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1663">
         <v>3</v>
@@ -34216,7 +34231,7 @@
         <v>1501</v>
       </c>
       <c r="D1664" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1664">
         <v>2</v>
@@ -34236,7 +34251,7 @@
         <v>1509</v>
       </c>
       <c r="D1665" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1665">
         <v>1</v>
@@ -34256,7 +34271,7 @@
         <v>1504</v>
       </c>
       <c r="D1666" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1666">
         <v>3</v>
@@ -34276,7 +34291,7 @@
         <v>1490</v>
       </c>
       <c r="D1667" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1667">
         <v>1</v>
@@ -34408,7 +34423,7 @@
         <v>1483</v>
       </c>
       <c r="D1676" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1676">
         <v>1</v>
@@ -34428,7 +34443,7 @@
         <v>1485</v>
       </c>
       <c r="D1677" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1677">
         <v>3</v>
@@ -34448,7 +34463,7 @@
         <v>1491</v>
       </c>
       <c r="D1678" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1678">
         <v>2</v>
@@ -34496,7 +34511,7 @@
         <v>1482</v>
       </c>
       <c r="D1681" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1681">
         <v>10</v>
@@ -34536,7 +34551,7 @@
         <v>1491</v>
       </c>
       <c r="D1683" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1683">
         <v>5</v>
@@ -34556,7 +34571,7 @@
         <v>1484</v>
       </c>
       <c r="D1684" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1684">
         <v>5</v>
@@ -34576,7 +34591,7 @@
         <v>1490</v>
       </c>
       <c r="D1685" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1685">
         <v>2</v>
@@ -34610,7 +34625,7 @@
         <v>1482</v>
       </c>
       <c r="D1687" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1687">
         <v>1</v>
@@ -34630,7 +34645,7 @@
         <v>1484</v>
       </c>
       <c r="D1688" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1688">
         <v>5</v>
@@ -34664,7 +34679,7 @@
         <v>1512</v>
       </c>
       <c r="D1690" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1690">
         <v>1</v>
@@ -34684,7 +34699,7 @@
         <v>1513</v>
       </c>
       <c r="D1691" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1691">
         <v>3</v>
@@ -34732,7 +34747,7 @@
         <v>1483</v>
       </c>
       <c r="D1694" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1694">
         <v>3</v>
@@ -34752,7 +34767,7 @@
         <v>1485</v>
       </c>
       <c r="D1695" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1695">
         <v>2</v>
@@ -34772,7 +34787,7 @@
         <v>1491</v>
       </c>
       <c r="D1696" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1696">
         <v>5</v>
@@ -34806,7 +34821,7 @@
         <v>1483</v>
       </c>
       <c r="D1698" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1698">
         <v>10</v>
@@ -34826,7 +34841,7 @@
         <v>1484</v>
       </c>
       <c r="D1699" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1699">
         <v>1</v>
@@ -39920,7 +39935,7 @@
         <v>1562</v>
       </c>
       <c r="D1993" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E1993">
         <v>10</v>
@@ -39940,7 +39955,7 @@
         <v>1571</v>
       </c>
       <c r="D1994" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E1994">
         <v>2</v>
@@ -40476,7 +40491,7 @@
         <v>1562</v>
       </c>
       <c r="D2028" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2028">
         <v>10</v>
@@ -40496,7 +40511,7 @@
         <v>1566</v>
       </c>
       <c r="D2029" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2029">
         <v>1</v>
@@ -40584,7 +40599,7 @@
         <v>1579</v>
       </c>
       <c r="D2034" t="s">
-        <v>1901</v>
+        <v>1906</v>
       </c>
       <c r="E2034">
         <v>3</v>
@@ -40604,7 +40619,7 @@
         <v>1558</v>
       </c>
       <c r="D2035" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2035">
         <v>1</v>
@@ -40652,7 +40667,7 @@
         <v>1562</v>
       </c>
       <c r="D2038" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2038">
         <v>10</v>
@@ -40672,7 +40687,7 @@
         <v>1566</v>
       </c>
       <c r="D2039" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2039">
         <v>1</v>
@@ -41065,7 +41080,7 @@
         <v>1562</v>
       </c>
       <c r="D2063" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2063">
         <v>10</v>
@@ -41085,7 +41100,7 @@
         <v>1567</v>
       </c>
       <c r="D2064" t="s">
-        <v>1902</v>
+        <v>1907</v>
       </c>
       <c r="E2064">
         <v>2</v>
@@ -41105,7 +41120,7 @@
         <v>1579</v>
       </c>
       <c r="D2065" t="s">
-        <v>1901</v>
+        <v>1906</v>
       </c>
       <c r="E2065">
         <v>5</v>
@@ -41594,7 +41609,7 @@
         <v>1268</v>
       </c>
       <c r="D2098" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E2098">
         <v>10</v>
@@ -41645,7 +41660,7 @@
         <v>1268</v>
       </c>
       <c r="D2101" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E2101">
         <v>10</v>
@@ -42035,7 +42050,7 @@
         <v>1608</v>
       </c>
       <c r="D2125" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2125">
         <v>4</v>
@@ -42055,7 +42070,7 @@
         <v>1609</v>
       </c>
       <c r="D2126" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2126">
         <v>1</v>
@@ -42075,7 +42090,7 @@
         <v>1610</v>
       </c>
       <c r="D2127" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2127">
         <v>5</v>
@@ -42095,7 +42110,7 @@
         <v>1611</v>
       </c>
       <c r="D2128" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2128">
         <v>1</v>
@@ -43712,7 +43727,7 @@
         <v>1665</v>
       </c>
       <c r="D2227" t="s">
-        <v>1903</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="2228" spans="1:7">
@@ -43910,7 +43925,7 @@
         <v>1675</v>
       </c>
       <c r="D2239" t="s">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="G2239">
         <v>1</v>
@@ -45384,7 +45399,7 @@
         <v>1675</v>
       </c>
       <c r="D2328" t="s">
-        <v>1905</v>
+        <v>1910</v>
       </c>
       <c r="G2328">
         <v>1</v>
@@ -45660,7 +45675,7 @@
         <v>1739</v>
       </c>
       <c r="D2346" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2346">
         <v>5</v>
@@ -45680,7 +45695,7 @@
         <v>1740</v>
       </c>
       <c r="D2347" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2347">
         <v>5</v>
@@ -46162,7 +46177,7 @@
         <v>1747</v>
       </c>
       <c r="D2378" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2378">
         <v>5</v>
@@ -46182,7 +46197,7 @@
         <v>1748</v>
       </c>
       <c r="D2379" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2379">
         <v>5</v>
@@ -46258,7 +46273,7 @@
         <v>1747</v>
       </c>
       <c r="D2384" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2384">
         <v>5</v>
@@ -46278,7 +46293,7 @@
         <v>1748</v>
       </c>
       <c r="D2385" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2385">
         <v>5</v>
@@ -46298,7 +46313,7 @@
         <v>1749</v>
       </c>
       <c r="D2386" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2386">
         <v>3</v>
@@ -46318,7 +46333,7 @@
         <v>1747</v>
       </c>
       <c r="D2387" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2387">
         <v>3</v>
@@ -46338,7 +46353,7 @@
         <v>1748</v>
       </c>
       <c r="D2388" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E2388">
         <v>3</v>
@@ -46804,7 +46819,7 @@
         <v>1735</v>
       </c>
       <c r="D2420" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2420">
         <v>1</v>
@@ -46824,7 +46839,7 @@
         <v>1736</v>
       </c>
       <c r="D2421" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2421">
         <v>3</v>
@@ -46917,7 +46932,7 @@
         <v>1735</v>
       </c>
       <c r="D2427" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2427">
         <v>10</v>
@@ -46937,7 +46952,7 @@
         <v>1738</v>
       </c>
       <c r="D2428" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E2428">
         <v>1</v>
@@ -48914,7 +48929,7 @@
         <v>125</v>
       </c>
       <c r="C2569" t="s">
-        <v>1441</v>
+        <v>1874</v>
       </c>
       <c r="G2569">
         <v>1</v>
@@ -48942,7 +48957,7 @@
         <v>125</v>
       </c>
       <c r="C2571" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="G2571">
         <v>1</v>
@@ -48956,7 +48971,7 @@
         <v>125</v>
       </c>
       <c r="C2572" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="G2572">
         <v>1</v>
@@ -48984,7 +48999,7 @@
         <v>1015</v>
       </c>
       <c r="C2574" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="G2574">
         <v>1</v>
@@ -48998,7 +49013,7 @@
         <v>1015</v>
       </c>
       <c r="C2575" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="G2575">
         <v>1</v>
@@ -49012,7 +49027,7 @@
         <v>1015</v>
       </c>
       <c r="C2576" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="G2576">
         <v>1</v>
@@ -49026,7 +49041,7 @@
         <v>1015</v>
       </c>
       <c r="C2577" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="G2577">
         <v>1</v>
@@ -49040,7 +49055,7 @@
         <v>146</v>
       </c>
       <c r="C2578" t="s">
-        <v>1872</v>
+        <v>1881</v>
       </c>
       <c r="G2578">
         <v>1</v>
@@ -49054,7 +49069,7 @@
         <v>146</v>
       </c>
       <c r="C2579" t="s">
-        <v>1873</v>
+        <v>1882</v>
       </c>
       <c r="G2579">
         <v>1</v>
@@ -49082,7 +49097,7 @@
         <v>146</v>
       </c>
       <c r="C2581" t="s">
-        <v>1874</v>
+        <v>1883</v>
       </c>
       <c r="G2581">
         <v>1</v>
@@ -49096,7 +49111,7 @@
         <v>146</v>
       </c>
       <c r="C2582" t="s">
-        <v>1875</v>
+        <v>1884</v>
       </c>
       <c r="G2582">
         <v>1</v>
@@ -49124,7 +49139,7 @@
         <v>1017</v>
       </c>
       <c r="C2584" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="G2584">
         <v>1</v>
@@ -49138,7 +49153,7 @@
         <v>1017</v>
       </c>
       <c r="C2585" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="G2585">
         <v>1</v>
@@ -49166,7 +49181,7 @@
         <v>1017</v>
       </c>
       <c r="C2587" t="s">
-        <v>1882</v>
+        <v>1887</v>
       </c>
       <c r="G2587">
         <v>1</v>
@@ -49180,7 +49195,7 @@
         <v>1017</v>
       </c>
       <c r="C2588" t="s">
-        <v>1883</v>
+        <v>1888</v>
       </c>
       <c r="G2588">
         <v>1</v>
@@ -49208,7 +49223,7 @@
         <v>1018</v>
       </c>
       <c r="C2590" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="G2590">
         <v>1</v>
@@ -49222,7 +49237,7 @@
         <v>1018</v>
       </c>
       <c r="C2591" t="s">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="G2591">
         <v>1</v>
@@ -49236,7 +49251,7 @@
         <v>1018</v>
       </c>
       <c r="C2592" t="s">
-        <v>1886</v>
+        <v>1891</v>
       </c>
       <c r="G2592">
         <v>1</v>
@@ -49250,7 +49265,7 @@
         <v>1018</v>
       </c>
       <c r="C2593" t="s">
-        <v>1887</v>
+        <v>1892</v>
       </c>
       <c r="G2593">
         <v>1</v>
@@ -49264,7 +49279,7 @@
         <v>1018</v>
       </c>
       <c r="C2594" t="s">
-        <v>1888</v>
+        <v>1893</v>
       </c>
       <c r="G2594">
         <v>1</v>
@@ -49278,7 +49293,7 @@
         <v>1019</v>
       </c>
       <c r="C2595" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="G2595">
         <v>1</v>
@@ -49292,7 +49307,7 @@
         <v>1019</v>
       </c>
       <c r="C2596" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="G2596">
         <v>1</v>
@@ -49320,7 +49335,7 @@
         <v>1019</v>
       </c>
       <c r="C2598" t="s">
-        <v>1883</v>
+        <v>1888</v>
       </c>
       <c r="G2598">
         <v>1</v>
@@ -49348,7 +49363,7 @@
         <v>1021</v>
       </c>
       <c r="C2600" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="G2600">
         <v>1</v>
@@ -49362,7 +49377,7 @@
         <v>1021</v>
       </c>
       <c r="C2601" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="G2601">
         <v>1</v>
@@ -49390,7 +49405,7 @@
         <v>1021</v>
       </c>
       <c r="C2603" t="s">
-        <v>1883</v>
+        <v>1888</v>
       </c>
       <c r="G2603">
         <v>1</v>
@@ -49418,7 +49433,7 @@
         <v>1023</v>
       </c>
       <c r="C2605" t="s">
-        <v>1890</v>
+        <v>1895</v>
       </c>
       <c r="G2605">
         <v>1</v>
@@ -49432,7 +49447,7 @@
         <v>1023</v>
       </c>
       <c r="C2606" t="s">
-        <v>1882</v>
+        <v>1887</v>
       </c>
       <c r="G2606">
         <v>1</v>

--- a/output/clean_data/stock_weights.xlsx
+++ b/output/clean_data/stock_weights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="1902">
   <si>
     <t>Area</t>
   </si>
@@ -5696,6 +5696,12 @@
     <t>Eastern Atlantic Ocean and Mediterranean stock</t>
   </si>
   <si>
+    <t>{"61": 1.0, "67": 1.0}</t>
+  </si>
+  <si>
+    <t>{"61": 0.3333333333333333, "67": 1.0}</t>
+  </si>
+  <si>
     <t>{"71": 1.0, "77": 1.0}</t>
   </si>
   <si>
@@ -5709,9 +5715,6 @@
   </si>
   <si>
     <t>{"57": 0.5, "51": 1.0}</t>
-  </si>
-  <si>
-    <t>{"61": 1.0, "67": 1.0}</t>
   </si>
   <si>
     <t>{"81": 1.0, "87": 1.0}</t>
@@ -6218,7 +6221,7 @@
         <v>1028</v>
       </c>
       <c r="D10">
-        <v>0.3205128205128205</v>
+        <v>0.2762430939226519</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6232,7 +6235,7 @@
         <v>1029</v>
       </c>
       <c r="D11">
-        <v>0.08974358974358974</v>
+        <v>0.07734806629834254</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6246,7 +6249,7 @@
         <v>1030</v>
       </c>
       <c r="D12">
-        <v>0.08974358974358974</v>
+        <v>0.07734806629834254</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6260,7 +6263,7 @@
         <v>1031</v>
       </c>
       <c r="D13">
-        <v>0.1153846153846154</v>
+        <v>0.09944751381215469</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6274,7 +6277,7 @@
         <v>1032</v>
       </c>
       <c r="D14">
-        <v>0.3846153846153846</v>
+        <v>0.3314917127071823</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6512,7 +6515,7 @@
         <v>1048</v>
       </c>
       <c r="D31">
-        <v>0.01554400923521402</v>
+        <v>0.01554397701978437</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6526,7 +6529,7 @@
         <v>1049</v>
       </c>
       <c r="D32">
-        <v>0.06217603694085608</v>
+        <v>0.0621759080791375</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6540,7 +6543,7 @@
         <v>1050</v>
       </c>
       <c r="D33">
-        <v>2.072534564695203E-06</v>
+        <v>2.072530269304583E-06</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6554,7 +6557,7 @@
         <v>1051</v>
       </c>
       <c r="D34">
-        <v>0.5181336411738007</v>
+        <v>0.5181325673261458</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6568,7 +6571,7 @@
         <v>1052</v>
       </c>
       <c r="D35">
-        <v>0.05181336411738006</v>
+        <v>0.05181325673261458</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6582,7 +6585,7 @@
         <v>1053</v>
       </c>
       <c r="D36">
-        <v>0.04145069129390405</v>
+        <v>0.04145060538609167</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6596,7 +6599,7 @@
         <v>1045</v>
       </c>
       <c r="D37">
-        <v>0.0829013825878081</v>
+        <v>0.08290121077218333</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6610,7 +6613,7 @@
         <v>1054</v>
       </c>
       <c r="D38">
-        <v>0.1036267282347601</v>
+        <v>0.1036265134652292</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6624,7 +6627,7 @@
         <v>1055</v>
       </c>
       <c r="D39">
-        <v>0.1243520738817122</v>
+        <v>0.124351816158275</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6708,7 +6711,7 @@
         <v>1022</v>
       </c>
       <c r="D45">
-        <v>0.6235802428725737</v>
+        <v>0.6004854062913698</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -6722,7 +6725,7 @@
         <v>1048</v>
       </c>
       <c r="D46">
-        <v>0.03273215279368924</v>
+        <v>0.03151988904999054</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6736,7 +6739,7 @@
         <v>1059</v>
       </c>
       <c r="D47">
-        <v>0.2291250695558247</v>
+        <v>0.2206392233499338</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6750,7 +6753,7 @@
         <v>1060</v>
       </c>
       <c r="D48">
-        <v>0.09819645838106772</v>
+        <v>0.09455966714997163</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6764,7 +6767,7 @@
         <v>1045</v>
       </c>
       <c r="D49">
-        <v>0.01636607639684462</v>
+        <v>0.01575994452499527</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7100,7 +7103,7 @@
         <v>1080</v>
       </c>
       <c r="D73">
-        <v>0.4716981132075472</v>
+        <v>0.4716892134110677</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7114,7 +7117,7 @@
         <v>1081</v>
       </c>
       <c r="D74">
-        <v>0.1509433962264151</v>
+        <v>0.1509405482915417</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7128,7 +7131,7 @@
         <v>1082</v>
       </c>
       <c r="D75">
-        <v>0.3773584905660378</v>
+        <v>0.3773513707288542</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7408,7 +7411,7 @@
         <v>1095</v>
       </c>
       <c r="D95">
-        <v>0.06349206349206349</v>
+        <v>0.058393734352304</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7422,7 +7425,7 @@
         <v>1096</v>
       </c>
       <c r="D96">
-        <v>0.126984126984127</v>
+        <v>0.116787468704608</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7436,7 +7439,7 @@
         <v>1097</v>
       </c>
       <c r="D97">
-        <v>0.119047619047619</v>
+        <v>0.10948825191057</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7450,7 +7453,7 @@
         <v>1098</v>
       </c>
       <c r="D98">
-        <v>0.02380952380952381</v>
+        <v>0.021897650382114</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7464,7 +7467,7 @@
         <v>1099</v>
       </c>
       <c r="D99">
-        <v>0.3968253968253968</v>
+        <v>0.3649608397019</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7478,7 +7481,7 @@
         <v>1100</v>
       </c>
       <c r="D100">
-        <v>0.0873015873015873</v>
+        <v>0.08029138473441799</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7492,7 +7495,7 @@
         <v>1101</v>
       </c>
       <c r="D101">
-        <v>0.1825396825396825</v>
+        <v>0.167881986262874</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7968,7 +7971,7 @@
         <v>1120</v>
       </c>
       <c r="D135">
-        <v>0.25</v>
+        <v>0.1398640521413186</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -7982,7 +7985,7 @@
         <v>1119</v>
       </c>
       <c r="D136">
-        <v>0.45</v>
+        <v>0.2517552938543736</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -7996,7 +7999,7 @@
         <v>1121</v>
       </c>
       <c r="D137">
-        <v>0.3</v>
+        <v>0.1678368625695824</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8500,7 +8503,7 @@
         <v>1150</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0.999000999000999</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -29575,7 +29578,7 @@
         <v>1508</v>
       </c>
       <c r="D1679">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="1680" spans="1:4">
@@ -29589,7 +29592,7 @@
         <v>1482</v>
       </c>
       <c r="D1680">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -40447,7 +40450,7 @@
         <v>1769</v>
       </c>
       <c r="D2456">
-        <v>1</v>
+        <v>0.138121546961326</v>
       </c>
     </row>
     <row r="2457" spans="1:4">
@@ -40461,7 +40464,7 @@
         <v>1770</v>
       </c>
       <c r="D2457">
-        <v>1</v>
+        <v>0.000999000999000999</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -40503,7 +40506,7 @@
         <v>1773</v>
       </c>
       <c r="D2460">
-        <v>1</v>
+        <v>2.072530269304583E-06</v>
       </c>
     </row>
     <row r="2461" spans="1:4">
@@ -40517,7 +40520,7 @@
         <v>1091</v>
       </c>
       <c r="D2461">
-        <v>1</v>
+        <v>0.03703586963373889</v>
       </c>
     </row>
     <row r="2462" spans="1:4">
@@ -40545,7 +40548,7 @@
         <v>1056</v>
       </c>
       <c r="D2463">
-        <v>1</v>
+        <v>1.886756853644271E-05</v>
       </c>
     </row>
     <row r="2464" spans="1:4">
@@ -40558,8 +40561,8 @@
       <c r="C2464" t="s">
         <v>1775</v>
       </c>
-      <c r="D2464">
-        <v>1</v>
+      <c r="D2464" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -40573,7 +40576,7 @@
         <v>1776</v>
       </c>
       <c r="D2465">
-        <v>0.5</v>
+        <v>0.08029138473441799</v>
       </c>
     </row>
     <row r="2466" spans="1:4">
@@ -40587,7 +40590,7 @@
         <v>1777</v>
       </c>
       <c r="D2466">
-        <v>0.5</v>
+        <v>7.299216794038E-06</v>
       </c>
     </row>
     <row r="2467" spans="1:4">
@@ -40600,8 +40603,8 @@
       <c r="C2467" t="s">
         <v>1775</v>
       </c>
-      <c r="D2467">
-        <v>1</v>
+      <c r="D2467" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="2468" spans="1:4">
@@ -40614,8 +40617,8 @@
       <c r="C2468" t="s">
         <v>1775</v>
       </c>
-      <c r="D2468">
-        <v>1</v>
+      <c r="D2468" t="s">
+        <v>1893</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -40628,8 +40631,8 @@
       <c r="C2469" t="s">
         <v>1775</v>
       </c>
-      <c r="D2469">
-        <v>1</v>
+      <c r="D2469" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -40643,7 +40646,7 @@
         <v>1778</v>
       </c>
       <c r="D2470">
-        <v>0.5</v>
+        <v>0.2845394276762986</v>
       </c>
     </row>
     <row r="2471" spans="1:4">
@@ -40657,7 +40660,7 @@
         <v>1779</v>
       </c>
       <c r="D2471">
-        <v>0.5</v>
+        <v>0.1560043637584268</v>
       </c>
     </row>
     <row r="2472" spans="1:4">
@@ -41889,7 +41892,7 @@
         <v>1863</v>
       </c>
       <c r="D2559" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="2560" spans="1:4">
@@ -41959,7 +41962,7 @@
         <v>1867</v>
       </c>
       <c r="D2564" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="2565" spans="1:4">
@@ -41973,7 +41976,7 @@
         <v>1867</v>
       </c>
       <c r="D2565" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="2566" spans="1:4">
@@ -42001,7 +42004,7 @@
         <v>1869</v>
       </c>
       <c r="D2567" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="2568" spans="1:4">
@@ -42015,7 +42018,7 @@
         <v>1870</v>
       </c>
       <c r="D2568" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="2569" spans="1:4">
@@ -42029,7 +42032,7 @@
         <v>1871</v>
       </c>
       <c r="D2569" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="2570" spans="1:4">
@@ -42057,7 +42060,7 @@
         <v>1872</v>
       </c>
       <c r="D2571" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="2572" spans="1:4">
@@ -42071,7 +42074,7 @@
         <v>1873</v>
       </c>
       <c r="D2572" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="2573" spans="1:4">
@@ -42085,7 +42088,7 @@
         <v>1867</v>
       </c>
       <c r="D2573" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="2574" spans="1:4">
@@ -42127,7 +42130,7 @@
         <v>1876</v>
       </c>
       <c r="D2576" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="2577" spans="1:4">
@@ -42141,7 +42144,7 @@
         <v>1877</v>
       </c>
       <c r="D2577" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="2578" spans="1:4">

--- a/output/clean_data/stock_weights.xlsx
+++ b/output/clean_data/stock_weights.xlsx
@@ -7468,7 +7468,7 @@
         <v>1098</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>7.936381962191077E-06</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7482,7 +7482,7 @@
         <v>1099</v>
       </c>
       <c r="D102">
-        <v>7.936444948849612E-06</v>
+        <v>7.936381962191077E-06</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7496,7 +7496,7 @@
         <v>1100</v>
       </c>
       <c r="D103">
-        <v>0.0634915595907969</v>
+        <v>0.06349105569752861</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7510,7 +7510,7 @@
         <v>1101</v>
       </c>
       <c r="D104">
-        <v>0.1269831191815938</v>
+        <v>0.1269821113950572</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7524,7 +7524,7 @@
         <v>1102</v>
       </c>
       <c r="D105">
-        <v>0.1190466742327442</v>
+        <v>0.1190457294328661</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -7538,7 +7538,7 @@
         <v>1103</v>
       </c>
       <c r="D106">
-        <v>0.02380933484654884</v>
+        <v>0.02380914588657323</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -7552,7 +7552,7 @@
         <v>1104</v>
       </c>
       <c r="D107">
-        <v>0.3968222474424806</v>
+        <v>0.3968190981095538</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -7566,7 +7566,7 @@
         <v>1105</v>
       </c>
       <c r="D108">
-        <v>0.08730089443734573</v>
+        <v>0.08730020158410184</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7580,7 +7580,7 @@
         <v>1106</v>
       </c>
       <c r="D109">
-        <v>0.1825382338235411</v>
+        <v>0.1825367851303948</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -15182,7 +15182,7 @@
         <v>1368</v>
       </c>
       <c r="D652">
-        <v>0.7118304578548517</v>
+        <v>0.5897804166115644</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -15196,7 +15196,7 @@
         <v>1365</v>
       </c>
       <c r="D653">
-        <v>0.08277077068521393</v>
+        <v>0.06857894190857995</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -15209,6 +15209,9 @@
       <c r="C654" t="s">
         <v>1387</v>
       </c>
+      <c r="D654">
+        <v>0.09427663302626302</v>
+      </c>
     </row>
     <row r="655" spans="1:4">
       <c r="A655">
@@ -15220,6 +15223,9 @@
       <c r="C655" t="s">
         <v>1388</v>
       </c>
+      <c r="D655">
+        <v>0.05413113868759118</v>
+      </c>
     </row>
     <row r="656" spans="1:4">
       <c r="A656">
@@ -15231,6 +15237,9 @@
       <c r="C656" t="s">
         <v>1389</v>
       </c>
+      <c r="D656">
+        <v>0.02305165362612498</v>
+      </c>
     </row>
     <row r="657" spans="1:4">
       <c r="A657">
@@ -15243,7 +15252,7 @@
         <v>1366</v>
       </c>
       <c r="D657">
-        <v>0.008843866709731042</v>
+        <v>0.007327502405897184</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -15257,7 +15266,7 @@
         <v>1370</v>
       </c>
       <c r="D658">
-        <v>0.0004054406852605052</v>
+        <v>0.0003359240583562916</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -15271,7 +15280,7 @@
         <v>1371</v>
       </c>
       <c r="D659">
-        <v>0.01255420783053894</v>
+        <v>0.01040167057031607</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -15285,7 +15294,7 @@
         <v>1362</v>
       </c>
       <c r="D660">
-        <v>0.01780013910998647</v>
+        <v>0.0147481374872165</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -15299,7 +15308,7 @@
         <v>1363</v>
       </c>
       <c r="D661">
-        <v>0.05155310903149261</v>
+        <v>0.04271384258246359</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -15313,7 +15322,7 @@
         <v>1376</v>
       </c>
       <c r="D662">
-        <v>0.006479709200407961</v>
+        <v>0.005368701984535836</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -15327,7 +15336,7 @@
         <v>1372</v>
       </c>
       <c r="D663">
-        <v>0.009400328571322905</v>
+        <v>0.007788553636476892</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -15341,7 +15350,7 @@
         <v>1358</v>
       </c>
       <c r="D664">
-        <v>0.09836197032119395</v>
+        <v>0.08149688341461395</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -15355,7 +15364,7 @@
         <v>1390</v>
       </c>
       <c r="D665">
-        <v>0.5</v>
+        <v>0.5532089852866889</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -15369,7 +15378,7 @@
         <v>1391</v>
       </c>
       <c r="D666">
-        <v>0.5</v>
+        <v>0.446791014713311</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -37377,7 +37386,7 @@
         <v>1667</v>
       </c>
       <c r="D2238">
-        <v>0.0670995670995671</v>
+        <v>0.06705809641532756</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -37391,7 +37400,7 @@
         <v>1668</v>
       </c>
       <c r="D2239">
-        <v>0.1706864564007421</v>
+        <v>0.1705809641532756</v>
       </c>
     </row>
     <row r="2240" spans="1:4">
@@ -37405,7 +37414,7 @@
         <v>1669</v>
       </c>
       <c r="D2240">
-        <v>0.1209029066171923</v>
+        <v>0.1208281829419036</v>
       </c>
     </row>
     <row r="2241" spans="1:4">
@@ -37418,6 +37427,9 @@
       <c r="C2241" t="s">
         <v>1670</v>
       </c>
+      <c r="D2241">
+        <v>0.0003090234857849196</v>
+      </c>
     </row>
     <row r="2242" spans="1:4">
       <c r="A2242">
@@ -37430,7 +37442,7 @@
         <v>1671</v>
       </c>
       <c r="D2242">
-        <v>0.6413110698824984</v>
+        <v>0.6409147095179234</v>
       </c>
     </row>
     <row r="2243" spans="1:4">
@@ -37442,6 +37454,9 @@
       </c>
       <c r="C2243" t="s">
         <v>1672</v>
+      </c>
+      <c r="D2243">
+        <v>0.0003090234857849196</v>
       </c>
     </row>
     <row r="2244" spans="1:4">
